--- a/Output/summary_sorted/summary_sorted_msni_all_population_group.xlsx
+++ b/Output/summary_sorted/summary_sorted_msni_all_population_group.xlsx
@@ -405,10 +405,10 @@
     <t>0.127760221780947</t>
   </si>
   <si>
-    <t>0.761937987977298</t>
-  </si>
-  <si>
-    <t>0.236861594917921</t>
+    <t>0.0515064654456522</t>
+  </si>
+  <si>
+    <t>0.0132704570174694</t>
   </si>
   <si>
     <t>0.00424314085474722</t>
@@ -550,10 +550,10 @@
     <t>0.240718422961338</t>
   </si>
   <si>
-    <t>0.694887444466166</t>
-  </si>
-  <si>
-    <t>0.304717115096957</t>
+    <t>0.0930692057364073</t>
+  </si>
+  <si>
+    <t>0.00699175708991905</t>
   </si>
   <si>
     <t>0.00167460219288042</t>
@@ -1459,7 +1459,7 @@
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>51</v>

--- a/Output/summary_sorted/summary_sorted_msni_all_population_group.xlsx
+++ b/Output/summary_sorted/summary_sorted_msni_all_population_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="211">
   <si>
     <t>governorate</t>
   </si>
@@ -25,18 +25,6 @@
     <t>lsg_all</t>
   </si>
   <si>
-    <t>lsg_all_4</t>
-  </si>
-  <si>
-    <t>lsg_all_3</t>
-  </si>
-  <si>
-    <t>lsg_all_2</t>
-  </si>
-  <si>
-    <t>lsg_all_1</t>
-  </si>
-  <si>
     <t>seven_lsg</t>
   </si>
   <si>
@@ -145,16 +133,16 @@
     <t>lsg_vulnerable</t>
   </si>
   <si>
-    <t>vulnerability_1</t>
-  </si>
-  <si>
-    <t>vulnerability_2</t>
-  </si>
-  <si>
-    <t>vulnerability_3</t>
-  </si>
-  <si>
-    <t>vulnerability_4</t>
+    <t>vulnerability_score_1</t>
+  </si>
+  <si>
+    <t>vulnerability_score_2</t>
+  </si>
+  <si>
+    <t>vulnerability_score_3</t>
+  </si>
+  <si>
+    <t>vulnerability_score_4</t>
   </si>
   <si>
     <t/>
@@ -163,32 +151,13 @@
     <t>LSG</t>
   </si>
   <si>
-    <t>% of households with
-multi-sectoral needs</t>
+    <t>% of households with multi-sectoral needs</t>
   </si>
   <si>
     <t>categorical</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>% of households per Multi-Sectoral Needs Index (MSNI) severity score</t>
-  </si>
-  <si>
-    <t>Extreme</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Severe</t>
-  </si>
-  <si>
-    <t>Stress</t>
-  </si>
-  <si>
-    <t>No or Minimal</t>
   </si>
   <si>
     <t>% of households per number of sectoral LSG(s), per
@@ -213,25 +182,28 @@
     <t>4</t>
   </si>
   <si>
-    <t>0.131638904129608</t>
+    <t>0.132455779934417</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>0.354773115774586</t>
+    <t>0.361132613742407</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0.382337467047107</t>
-  </si>
-  <si>
-    <t>0.101705914141858</t>
-  </si>
-  <si>
-    <t>0.00239705321620059</t>
+    <t>0.379345806769678</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0976155356907603</t>
+  </si>
+  <si>
+    <t>0.00230271817209668</t>
   </si>
   <si>
     <t>Among households with multi-sectoral needs, % of
@@ -247,7 +219,7 @@
     <t>Livelihoods</t>
   </si>
   <si>
-    <t>0.738119161048903</t>
+    <t>0.741334113479584</t>
   </si>
   <si>
     <t>Food Security</t>
@@ -278,13 +250,25 @@
 population group</t>
   </si>
   <si>
+    <t>No or Minimal</t>
+  </si>
+  <si>
     <t>0.348566894272264</t>
   </si>
   <si>
+    <t>Stress</t>
+  </si>
+  <si>
     <t>0.601134555379042</t>
   </si>
   <si>
+    <t>Severe</t>
+  </si>
+  <si>
     <t>0.0193125969390433</t>
+  </si>
+  <si>
+    <t>Extreme</t>
   </si>
   <si>
     <t>0.0309859534096504</t>
@@ -323,6 +307,9 @@
 population group</t>
   </si>
   <si>
+    <t>0.758371477776813</t>
+  </si>
+  <si>
     <t>0.0415004964234011</t>
   </si>
   <si>
@@ -351,12 +338,15 @@
     <t>% of households with a Capacity Gap AND no LSG</t>
   </si>
   <si>
-    <t>0.00131503034515534</t>
+    <t>0.00122069530105143</t>
   </si>
   <si>
     <t>% of households with a Capacity Gap AND no LSG AND with pre-existing vulnerabilities</t>
   </si>
   <si>
+    <t>0.00105570469626688</t>
+  </si>
+  <si>
     <t>Vulnerability</t>
   </si>
   <si>
@@ -369,7 +359,7 @@
     <t>% of households with at least one LSG, per vulnerability severity score</t>
   </si>
   <si>
-    <t>0.340932128361778</t>
+    <t>0.414924829679509</t>
   </si>
   <si>
     <t>0.25402629291602</t>
@@ -399,49 +389,37 @@
     <t>0.000538144287799749</t>
   </si>
   <si>
-    <t>0.807462855755931</t>
-  </si>
-  <si>
-    <t>0.127760221780947</t>
-  </si>
-  <si>
-    <t>0.0515064654456522</t>
-  </si>
-  <si>
-    <t>0.0132704570174694</t>
-  </si>
-  <si>
     <t>0.00424314085474722</t>
   </si>
   <si>
     <t>0.0170031149784365</t>
   </si>
   <si>
-    <t>0.0765596492752734</t>
-  </si>
-  <si>
-    <t>0.171848035860285</t>
-  </si>
-  <si>
-    <t>0.324019435851351</t>
-  </si>
-  <si>
-    <t>0.325622209730249</t>
-  </si>
-  <si>
-    <t>0.0801662691618582</t>
+    <t>0.0784052683589969</t>
+  </si>
+  <si>
+    <t>0.17068142849878</t>
+  </si>
+  <si>
+    <t>0.33205613538214</t>
+  </si>
+  <si>
+    <t>0.320244441314788</t>
+  </si>
+  <si>
+    <t>0.076828326324312</t>
   </si>
   <si>
     <t>0.217463923345277</t>
   </si>
   <si>
-    <t>0.773275589238819</t>
+    <t>0.776335687243045</t>
   </si>
   <si>
     <t>0.0759561751889015</t>
   </si>
   <si>
-    <t>0.465482058939257</t>
+    <t>0.466214861145634</t>
   </si>
   <si>
     <t>0.135381471742568</t>
@@ -502,6 +480,9 @@
     <t>0.111974070844873</t>
   </si>
   <si>
+    <t>0.629007948486455</t>
+  </si>
+  <si>
     <t>0.153528128168268</t>
   </si>
   <si>
@@ -511,82 +492,73 @@
     <t>0.0385000942830796</t>
   </si>
   <si>
-    <t>0.530210628713312</t>
-  </si>
-  <si>
-    <t>0.00430731234743076</t>
-  </si>
-  <si>
-    <t>0.407818571038839</t>
-  </si>
-  <si>
-    <t>0.0576634879004187</t>
-  </si>
-  <si>
-    <t>0.0103817898196749</t>
-  </si>
-  <si>
-    <t>0.295532335731127</t>
-  </si>
-  <si>
-    <t>0.298785751786657</t>
-  </si>
-  <si>
-    <t>0.241008605710858</t>
-  </si>
-  <si>
-    <t>0.16972197223857</t>
-  </si>
-  <si>
-    <t>0.125810363492556</t>
+    <t>0.529481051227955</t>
+  </si>
+  <si>
+    <t>0.00430408762641088</t>
+  </si>
+  <si>
+    <t>0.407513252777182</t>
+  </si>
+  <si>
+    <t>0.0587016083684521</t>
+  </si>
+  <si>
+    <t>0.00968814618868763</t>
+  </si>
+  <si>
+    <t>0.0062272772762472</t>
+  </si>
+  <si>
+    <t>0.296420233664314</t>
+  </si>
+  <si>
+    <t>0.384253386894658</t>
+  </si>
+  <si>
+    <t>0.242498053116716</t>
+  </si>
+  <si>
+    <t>0.170475747979907</t>
+  </si>
+  <si>
+    <t>0.125944485684408</t>
   </si>
   <si>
     <t>1.20689410202558e-05</t>
   </si>
   <si>
-    <t>0.659220614212336</t>
-  </si>
-  <si>
-    <t>0.240718422961338</t>
-  </si>
-  <si>
-    <t>0.0930692057364073</t>
-  </si>
-  <si>
-    <t>0.00699175708991905</t>
-  </si>
-  <si>
     <t>0.00167460219288042</t>
   </si>
   <si>
     <t>0.00582290756563313</t>
   </si>
   <si>
-    <t>0.0492637358759923</t>
-  </si>
-  <si>
-    <t>0.147571794821126</t>
-  </si>
-  <si>
-    <t>0.35939447765509</t>
-  </si>
-  <si>
-    <t>0.325556615264161</t>
-  </si>
-  <si>
-    <t>0.110703797684096</t>
+    <t>0.0528097639835984</t>
+  </si>
+  <si>
+    <t>0.144330018852837</t>
+  </si>
+  <si>
+    <t>0.365790391218792</t>
+  </si>
+  <si>
+    <t>0.320298567402396</t>
+  </si>
+  <si>
+    <t>0.109261679842843</t>
   </si>
   <si>
     <t>0.0763450194545665</t>
   </si>
   <si>
-    <t>0.642994110739581</t>
+    <t>0.646748358866897</t>
   </si>
   <si>
     <t>0.023912655309777</t>
   </si>
   <si>
-    <t>0.592008202552061</t>
+    <t>0.59338508836578</t>
   </si>
   <si>
     <t>0.13437452938494</t>
@@ -640,6 +612,9 @@
     <t>0.0389881754827877</t>
   </si>
   <si>
+    <t>0.806152056291093</t>
+  </si>
+  <si>
     <t>0.117502924254341</t>
   </si>
   <si>
@@ -649,31 +624,34 @@
     <t>0.017979112897405</t>
   </si>
   <si>
-    <t>0.406337162959694</t>
-  </si>
-  <si>
-    <t>0.00165463448824472</t>
-  </si>
-  <si>
-    <t>0.54181987025468</t>
-  </si>
-  <si>
-    <t>0.0501883322973814</t>
-  </si>
-  <si>
-    <t>0.00992653349471212</t>
-  </si>
-  <si>
-    <t>0.184567587441283</t>
-  </si>
-  <si>
-    <t>0.383490704636478</t>
-  </si>
-  <si>
-    <t>0.175588216652943</t>
-  </si>
-  <si>
-    <t>0.104078243331501</t>
+    <t>0.404960555943151</t>
+  </si>
+  <si>
+    <t>0.00165435569106858</t>
+  </si>
+  <si>
+    <t>0.541728576466912</t>
+  </si>
+  <si>
+    <t>0.0516565118988685</t>
+  </si>
+  <si>
+    <t>0.00969077985029557</t>
+  </si>
+  <si>
+    <t>0.00562764217863235</t>
+  </si>
+  <si>
+    <t>0.184575658638397</t>
+  </si>
+  <si>
+    <t>0.530093486430831</t>
+  </si>
+  <si>
+    <t>0.176069175087929</t>
+  </si>
+  <si>
+    <t>0.104086314528615</t>
   </si>
   <si>
     <t>0.0804893441097819</t>
@@ -857,225 +835,201 @@
       <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="Z2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AB2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AD2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AE2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AF2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AG2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AL2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AM2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AO2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AP2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AQ2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s">
         <v>85</v>
@@ -1087,16 +1041,16 @@
         <v>85</v>
       </c>
       <c r="Y3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Z3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC3" t="s">
         <v>94</v>
@@ -1123,90 +1077,78 @@
         <v>99</v>
       </c>
       <c r="AK3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AM3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AN3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AO3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AP3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AQ3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
         <v>77</v>
@@ -1221,225 +1163,201 @@
         <v>83</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AK4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="AL4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AM4" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="AN4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AO4" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AP4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AQ4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AH5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AP5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AQ5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1450,49 +1368,49 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
       <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
         <v>65</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>67</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>69</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
       </c>
       <c r="O6" t="s">
         <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
         <v>78</v>
@@ -1513,10 +1431,10 @@
         <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z6" t="s">
         <v>91</v>
@@ -1525,7 +1443,7 @@
         <v>92</v>
       </c>
       <c r="AB6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AC6" t="s">
         <v>95</v>
@@ -1540,10 +1458,10 @@
         <v>98</v>
       </c>
       <c r="AG6" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AH6" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s">
         <v>101</v>
@@ -1552,37 +1470,25 @@
         <v>102</v>
       </c>
       <c r="AK6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL6" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AO6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AP6" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="AQ6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR6" t="s">
         <v>115</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1651,43 +1557,43 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" t="s">
         <v>119</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>123</v>
       </c>
       <c r="AE1" t="s">
         <v>25</v>
@@ -1742,277 +1648,253 @@
       </c>
       <c r="AV1" t="s">
         <v>42</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="X2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Z2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AA2" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="AE2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AF2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AG2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AH2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AI2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AJ2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AK2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AL2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AP2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AQ2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AR2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AS2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AT2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AU2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AV2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" t="s">
         <v>85</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AC3" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>148</v>
-      </c>
       <c r="AD3" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="AE3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s">
         <v>94</v>
@@ -2039,353 +1921,317 @@
         <v>99</v>
       </c>
       <c r="AP3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AQ3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AR3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AS3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AT3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AU3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" t="s">
         <v>77</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>79</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>81</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>83</v>
       </c>
-      <c r="V4" t="s">
-        <v>142</v>
-      </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AL4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AP4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="AQ4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AR4" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="AS4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AU4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AV4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AH5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AP5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AQ5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AR5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AS5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AT5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AU5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AV5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -2396,154 +2242,142 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
         <v>124</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>125</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>126</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>128</v>
       </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>129</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>130</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>131</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>132</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>133</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>134</v>
       </c>
-      <c r="O6" t="s">
-        <v>135</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>136</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>137</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>138</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>139</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>140</v>
       </c>
-      <c r="U6" t="s">
-        <v>141</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
+        <v>142</v>
+      </c>
+      <c r="X6" t="s">
         <v>143</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>144</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>145</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>146</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>147</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE6" t="s">
         <v>149</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>150</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>151</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AH6" t="s">
         <v>152</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AI6" t="s">
         <v>153</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AJ6" t="s">
         <v>154</v>
       </c>
-      <c r="AG6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AK6" t="s">
         <v>155</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AL6" t="s">
         <v>156</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AM6" t="s">
         <v>157</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AN6" t="s">
         <v>158</v>
       </c>
-      <c r="AL6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AO6" t="s">
         <v>159</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>160</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
         <v>161</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AR6" t="s">
         <v>162</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AS6" t="s">
         <v>163</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
         <v>164</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AU6" t="s">
         <v>165</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AV6" t="s">
         <v>166</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2612,43 +2446,43 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" t="s">
         <v>119</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>123</v>
       </c>
       <c r="AE1" t="s">
         <v>25</v>
@@ -2703,277 +2537,253 @@
       </c>
       <c r="AV1" t="s">
         <v>42</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="X2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Z2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AA2" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="AE2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AF2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AG2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AH2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AI2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AJ2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AK2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AL2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AP2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AQ2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AR2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AS2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AT2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AU2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AV2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" t="s">
         <v>85</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AC3" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>148</v>
-      </c>
       <c r="AD3" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="AE3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s">
         <v>94</v>
@@ -3000,353 +2810,317 @@
         <v>99</v>
       </c>
       <c r="AP3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AQ3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AR3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AS3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AT3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AU3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" t="s">
         <v>77</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>79</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>81</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>83</v>
       </c>
-      <c r="V4" t="s">
-        <v>142</v>
-      </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AL4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AP4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="AQ4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AR4" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="AS4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AU4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AV4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AH5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AP5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AQ5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AR5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AS5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AT5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AU5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AV5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -3357,154 +3131,142 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
         <v>172</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>173</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>174</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>175</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>176</v>
       </c>
-      <c r="H6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>177</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>178</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>179</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>180</v>
       </c>
-      <c r="M6" t="s">
+      <c r="R6" t="s">
         <v>181</v>
       </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
         <v>182</v>
       </c>
-      <c r="O6" t="s">
+      <c r="T6" t="s">
         <v>183</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>184</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>185</v>
       </c>
-      <c r="R6" t="s">
+      <c r="W6" t="s">
         <v>186</v>
       </c>
-      <c r="S6" t="s">
+      <c r="X6" t="s">
         <v>187</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Y6" t="s">
         <v>188</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Z6" t="s">
         <v>189</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AA6" t="s">
         <v>190</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AB6" t="s">
         <v>191</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AC6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD6" t="s">
         <v>192</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AE6" t="s">
         <v>193</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AF6" t="s">
         <v>194</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AG6" t="s">
         <v>195</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>196</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AI6" t="s">
         <v>197</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AJ6" t="s">
         <v>198</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AK6" t="s">
         <v>199</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AL6" t="s">
         <v>200</v>
       </c>
-      <c r="AG6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AM6" t="s">
         <v>201</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AN6" t="s">
         <v>202</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AO6" t="s">
         <v>203</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AP6" t="s">
         <v>204</v>
       </c>
-      <c r="AL6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>205</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AR6" t="s">
         <v>206</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AS6" t="s">
         <v>207</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AT6" t="s">
         <v>208</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AU6" t="s">
         <v>209</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AV6" t="s">
         <v>210</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Output/summary_sorted/summary_sorted_msni_all_population_group.xlsx
+++ b/Output/summary_sorted/summary_sorted_msni_all_population_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="209">
   <si>
     <t>governorate</t>
   </si>
@@ -22,9 +22,6 @@
     <t>district</t>
   </si>
   <si>
-    <t>lsg_all</t>
-  </si>
-  <si>
     <t>seven_lsg</t>
   </si>
   <si>
@@ -149,15 +146,6 @@
   </si>
   <si>
     <t>LSG</t>
-  </si>
-  <si>
-    <t>% of households with multi-sectoral needs</t>
-  </si>
-  <si>
-    <t>categorical</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>% of households per number of sectoral LSG(s), per
@@ -165,6 +153,12 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>6</t>
@@ -832,284 +826,275 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
         <v>68</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AG2" t="s">
         <v>68</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AH2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AI2" t="s">
         <v>68</v>
       </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AM2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AO2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AP2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AD3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AK3" t="s">
         <v>104</v>
       </c>
       <c r="AL3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM3" t="s">
         <v>109</v>
       </c>
       <c r="AN3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AO3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AP3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
@@ -1127,10 +1112,10 @@
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>64</v>
@@ -1148,7 +1133,7 @@
         <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
         <v>77</v>
@@ -1160,7 +1145,7 @@
         <v>81</v>
       </c>
       <c r="U4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s">
         <v>77</v>
@@ -1169,7 +1154,7 @@
         <v>79</v>
       </c>
       <c r="X4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
         <v>77</v>
@@ -1181,7 +1166,7 @@
         <v>81</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s">
         <v>77</v>
@@ -1193,7 +1178,7 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s">
         <v>77</v>
@@ -1205,16 +1190,16 @@
         <v>81</v>
       </c>
       <c r="AJ4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s">
         <v>104</v>
       </c>
       <c r="AL4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM4" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="s">
         <v>77</v>
@@ -1224,17 +1209,14 @@
       </c>
       <c r="AP4" t="s">
         <v>81</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -1354,9 +1336,6 @@
         <v>46</v>
       </c>
       <c r="AP5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1371,7 +1350,7 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -1389,10 +1368,10 @@
         <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
         <v>65</v>
@@ -1410,7 +1389,7 @@
         <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
         <v>78</v>
@@ -1425,70 +1404,67 @@
         <v>84</v>
       </c>
       <c r="V6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>91</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>92</v>
       </c>
       <c r="AB6" t="s">
         <v>93</v>
       </c>
       <c r="AC6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD6" t="s">
         <v>95</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>96</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>97</v>
       </c>
       <c r="AF6" t="s">
         <v>98</v>
       </c>
       <c r="AG6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI6" t="s">
         <v>100</v>
       </c>
-      <c r="AH6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>101</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s">
         <v>105</v>
       </c>
       <c r="AL6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s">
         <v>110</v>
       </c>
       <c r="AN6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO6" t="s">
         <v>112</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>113</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1530,10 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>116</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1569,19 +1545,19 @@
         <v>19</v>
       </c>
       <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>120</v>
       </c>
       <c r="AA1" t="s">
         <v>21</v>
@@ -1645,315 +1621,306 @@
       </c>
       <c r="AU1" t="s">
         <v>41</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" t="s">
         <v>68</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AL2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AM2" t="s">
         <v>68</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
-        <v>135</v>
-      </c>
-      <c r="X2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>70</v>
-      </c>
       <c r="AO2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AP2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AQ2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AR2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AS2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AT2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AU2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="W3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z3" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AB3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AH3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AJ3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AL3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AP3" t="s">
         <v>104</v>
       </c>
       <c r="AQ3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR3" t="s">
         <v>109</v>
       </c>
       <c r="AS3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AT3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AU3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
@@ -1971,10 +1938,10 @@
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>64</v>
@@ -1992,10 +1959,10 @@
         <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="R4" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
         <v>77</v>
@@ -2007,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s">
         <v>77</v>
@@ -2019,7 +1986,7 @@
         <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s">
         <v>77</v>
@@ -2028,7 +1995,7 @@
         <v>79</v>
       </c>
       <c r="AC4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s">
         <v>77</v>
@@ -2040,7 +2007,7 @@
         <v>81</v>
       </c>
       <c r="AG4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s">
         <v>77</v>
@@ -2052,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="AK4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s">
         <v>77</v>
@@ -2064,16 +2031,16 @@
         <v>81</v>
       </c>
       <c r="AO4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AP4" t="s">
         <v>104</v>
       </c>
       <c r="AQ4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR4" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="s">
         <v>77</v>
@@ -2083,17 +2050,14 @@
       </c>
       <c r="AU4" t="s">
         <v>81</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -2228,9 +2192,6 @@
         <v>46</v>
       </c>
       <c r="AU5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2242,142 +2203,139 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>122</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>123</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>124</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>125</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>126</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>127</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>128</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>129</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>130</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>131</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>132</v>
-      </c>
-      <c r="P6" t="s">
-        <v>133</v>
       </c>
       <c r="Q6" t="s">
         <v>134</v>
       </c>
       <c r="R6" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" t="s">
         <v>136</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>137</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>138</v>
-      </c>
-      <c r="U6" t="s">
-        <v>139</v>
       </c>
       <c r="V6" t="s">
         <v>140</v>
       </c>
       <c r="W6" t="s">
+        <v>141</v>
+      </c>
+      <c r="X6" t="s">
         <v>142</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>143</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>144</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>145</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC6" t="s">
         <v>146</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>147</v>
       </c>
-      <c r="AC6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>148</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>149</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>150</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>151</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>152</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>153</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>154</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>155</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>156</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>157</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>158</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>159</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>160</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>161</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>162</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>163</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>164</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2401,10 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>116</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -2458,19 +2416,19 @@
         <v>19</v>
       </c>
       <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>120</v>
       </c>
       <c r="AA1" t="s">
         <v>21</v>
@@ -2534,315 +2492,306 @@
       </c>
       <c r="AU1" t="s">
         <v>41</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" t="s">
         <v>68</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AL2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AM2" t="s">
         <v>68</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
-        <v>135</v>
-      </c>
-      <c r="X2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>70</v>
-      </c>
       <c r="AO2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AP2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AQ2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AR2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AS2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AT2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AU2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="W3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z3" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AB3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AH3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AJ3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AL3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AP3" t="s">
         <v>104</v>
       </c>
       <c r="AQ3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR3" t="s">
         <v>109</v>
       </c>
       <c r="AS3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AT3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AU3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
@@ -2860,10 +2809,10 @@
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>64</v>
@@ -2881,10 +2830,10 @@
         <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="R4" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
         <v>77</v>
@@ -2896,7 +2845,7 @@
         <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s">
         <v>77</v>
@@ -2908,7 +2857,7 @@
         <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s">
         <v>77</v>
@@ -2917,7 +2866,7 @@
         <v>79</v>
       </c>
       <c r="AC4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s">
         <v>77</v>
@@ -2929,7 +2878,7 @@
         <v>81</v>
       </c>
       <c r="AG4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s">
         <v>77</v>
@@ -2941,7 +2890,7 @@
         <v>81</v>
       </c>
       <c r="AK4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s">
         <v>77</v>
@@ -2953,16 +2902,16 @@
         <v>81</v>
       </c>
       <c r="AO4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AP4" t="s">
         <v>104</v>
       </c>
       <c r="AQ4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR4" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="s">
         <v>77</v>
@@ -2972,17 +2921,14 @@
       </c>
       <c r="AU4" t="s">
         <v>81</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -3117,9 +3063,6 @@
         <v>46</v>
       </c>
       <c r="AU5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3131,142 +3074,139 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
         <v>167</v>
       </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>168</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>169</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>170</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>171</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>172</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>173</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>174</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>175</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>176</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>177</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>178</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>179</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>180</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>181</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>182</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>183</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>185</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>186</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>188</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>189</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC6" t="s">
         <v>190</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>191</v>
       </c>
-      <c r="AC6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>192</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>193</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>194</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>195</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>196</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>197</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>198</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>199</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>200</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>201</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>202</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>203</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>204</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>205</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>206</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>207</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>208</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
